--- a/metadata/rnaseq/todo/TMC - University of Connecticut and Scripps (RNAseq).xlsx
+++ b/metadata/rnaseq/todo/TMC - University of Connecticut and Scripps (RNAseq).xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 16 rxns; PN 1000127</t>
+          <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="4">
       <c r="C4" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
+          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
+          <t>10x Genomics; Chromium Chip E Single Cell ATAC Kit, 48 rxns; PN 1000155</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -516,49 +516,56 @@
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
+          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
+          <t>Custom</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
+          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
+          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 16 rxns; PN 1000127</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip Q Single Cell Kit, 16 rxns; PN 1000422</t>
+          <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
+          <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10X Genomics; Chromium Next GEM Chip Q Single Cell Kit, 16 rxns; PN 1000422</t>
         </is>
       </c>
     </row>
@@ -957,7 +964,7 @@
   <autoFilter ref="A1:E16"/>
   <dataValidations count="1">
     <dataValidation sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$12</formula1>
+      <formula1>_validation_data!$C$1:$C$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/rnaseq/todo/TMC - University of Connecticut and Scripps (RNAseq).xlsx
+++ b/metadata/rnaseq/todo/TMC - University of Connecticut and Scripps (RNAseq).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$16</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,141 +429,195 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Read 1 (R1)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
           <t>ng/ul</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>ul</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>pg/ul</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>ng</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>month</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Read 2 (R2)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>nM</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0,38,76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>10x Genomics; Chromium Chip E Single Cell ATAC Kit, 48 rxns; PN 1000155</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10,48,78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>10,48,86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Custom</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0,20-23,41-44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 16 rxns; PN 1000127</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>10X Genomics; Chromium Next GEM Chip Q Single Cell Kit, 16 rxns; PN 1000422</t>
         </is>
@@ -580,7 +634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,12 +677,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>barcode_offset</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip G Single Cell Kit</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -641,30 +695,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HBM299.NDGF.968</t>
+          <t>HBM233.CCCX.767</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>barcode_read</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip G Single Cell Kit</t>
+          <t>01regCARTIconHEAnm4_featurebcmatrixfiltered.tar</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM299.NDGF.968</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM233.CCCX.767</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HBM396.FQJM.676</t>
+          <t>HBM233.CCCX.767</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -674,66 +728,66 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>10x Genomics; Chromium Next GEM Chip G Single Cell Kit</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM396.FQJM.676</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM233.CCCX.767</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HBM586.WZDS.243</t>
+          <t>HBM299.NDGF.968</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>barcode_offset</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip G Single Cell Kit</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM586.WZDS.243</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM299.NDGF.968</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM599.GLRZ.888</t>
+          <t>HBM299.NDGF.968</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>barcode_read</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip G Single Cell Kit</t>
+          <t>02regMENISCconHEAnm4_featurebcmatrixfiltered.tar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM599.GLRZ.888</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM299.NDGF.968</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HBM629.QFBP.955</t>
+          <t>HBM299.NDGF.968</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -743,66 +797,66 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>10x Genomics; Chromium Next GEM Chip G Single Cell Kit</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM629.QFBP.955</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM299.NDGF.968</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HBM739.WHPN.858</t>
+          <t>HBM396.FQJM.676</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>barcode_offset</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM739.WHPN.858</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM396.FQJM.676</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HBM743.FBJP.586</t>
+          <t>HBM396.FQJM.676</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>barcode_read</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>03regVASCMEconHEAnm1_featurebcmatrixfiltered.tar</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM743.FBJP.586</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM396.FQJM.676</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HBM756.PWKH.456</t>
+          <t>HBM396.FQJM.676</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -818,60 +872,60 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM756.PWKH.456</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM396.FQJM.676</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HBM837.FPWJ.865</t>
+          <t>HBM586.WZDS.243</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>barcode_offset</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip G Single Cell Kit</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM837.FPWJ.865</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM586.WZDS.243</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HBM853.LGKF.867</t>
+          <t>HBM586.WZDS.243</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>barcode_read</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Chip G Single Cell Kit</t>
+          <t>02regMENISconHEAnm5_featurebcmatrixfiltered.tar</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM853.LGKF.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM586.WZDS.243</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HBM857.TXSL.447</t>
+          <t>HBM586.WZDS.243</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -887,60 +941,60 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.TXSL.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM586.WZDS.243</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM925.GSZJ.498</t>
+          <t>HBM599.GLRZ.888</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>barcode_offset</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM925.GSZJ.498</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM599.GLRZ.888</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM938.GJXR.224</t>
+          <t>HBM599.GLRZ.888</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>barcode_read</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>01regCARTIconHEAnm6_featurebcmatrixfiltered.tar</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.GJXR.224</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM599.GLRZ.888</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM975.XLSJ.242</t>
+          <t>HBM599.GLRZ.888</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -950,21 +1004,717 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>10x Genomics; Chromium Next GEM Chip G Single Cell Kit</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM599.GLRZ.888</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HBM629.QFBP.955</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>barcode_offset</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM629.QFBP.955</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HBM629.QFBP.955</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>barcode_read</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>02regMENISCconHEAnm2_featurebcmatrixfiltered.tar</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM629.QFBP.955</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HBM629.QFBP.955</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM629.QFBP.955</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HBM739.WHPN.858</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>barcode_offset</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM739.WHPN.858</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HBM739.WHPN.858</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>barcode_read</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>02regMENISCconHEAnm3_featurebcmatrixfiltered.tar</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM739.WHPN.858</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HBM739.WHPN.858</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM739.WHPN.858</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HBM743.FBJP.586</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>barcode_offset</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM743.FBJP.586</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HBM743.FBJP.586</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>barcode_read</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>01regCHONDRconHEA_featurebcmatrixfiltered.tar</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM743.FBJP.586</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HBM743.FBJP.586</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM743.FBJP.586</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HBM756.PWKH.456</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>barcode_offset</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM756.PWKH.456</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HBM756.PWKH.456</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>barcode_read</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>01regCHONDRconHEA_featurebcmatrixfiltered.tar</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM756.PWKH.456</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HBM756.PWKH.456</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM756.PWKH.456</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HBM837.FPWJ.865</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>barcode_offset</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM837.FPWJ.865</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HBM837.FPWJ.865</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>barcode_read</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>01regCARTIconHEAnm5_featurebcmatrixfiltered.tar</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM837.FPWJ.865</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HBM837.FPWJ.865</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Next GEM Chip G Single Cell Kit</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM837.FPWJ.865</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HBM853.LGKF.867</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>barcode_offset</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM853.LGKF.867</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HBM853.LGKF.867</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>barcode_read</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>02regMENISconHEAnm6_featurebcmatrixfiltered.tar</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM853.LGKF.867</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HBM853.LGKF.867</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Next GEM Chip G Single Cell Kit</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM853.LGKF.867</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HBM857.TXSL.447</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>barcode_offset</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.TXSL.447</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HBM857.TXSL.447</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>barcode_read</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>02regMENISconHEAnm7_featurebcmatrixfiltered.tar</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.TXSL.447</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HBM857.TXSL.447</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Next GEM Chip G Single Cell Kit</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.TXSL.447</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HBM925.GSZJ.498</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>barcode_offset</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM925.GSZJ.498</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HBM925.GSZJ.498</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>barcode_read</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>02regAVASMEconHEAnm1_featurebcmatrixfiltered.tar</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM925.GSZJ.498</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HBM925.GSZJ.498</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM925.GSZJ.498</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HBM938.GJXR.224</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>barcode_offset</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.GJXR.224</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HBM938.GJXR.224</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>barcode_read</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>01regCHONDRconHEA_featurebcmatrixfiltered.tar</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.GJXR.224</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HBM938.GJXR.224</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.GJXR.224</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>HBM975.XLSJ.242</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>barcode_offset</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM975.XLSJ.242</t>
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>HBM975.XLSJ.242</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>barcode_read</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>02regAVASMEconHEAnm1_featurebcmatrixfiltered.tar</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.XLSJ.242</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>HBM975.XLSJ.242</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.XLSJ.242</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E16"/>
-  <dataValidations count="1">
-    <dataValidation sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$13</formula1>
+  <autoFilter ref="A1:E46"/>
+  <dataValidations count="3">
+    <dataValidation sqref="D2 D5 D8 D11 D14 D17 D20 D23 D26 D29 D32 D35 D38 D41 D44" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$A$1:$A$9</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3 D6 D9 D12 D15 D18 D21 D24 D27 D30 D33 D36 D39 D42 D45" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$B$1:$B$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4 D7 D10 D13 D16 D19 D22 D25 D28 D31 D34 D37 D40 D43 D46" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$E$1:$E$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2901,13 +3651,13 @@
   <autoFilter ref="A1:D106"/>
   <dataValidations count="3">
     <dataValidation sqref="C2 C9 C16 C23 C30 C37 C44 C51 C58 C65 C72 C79 C86 C93 C100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$3</formula1>
+      <formula1>_validation_data!$C$1:$C$3</formula1>
     </dataValidation>
     <dataValidation sqref="C4 C11 C18 C25 C32 C39 C46 C53 C60 C67 C74 C81 C88 C95 C102" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$2</formula1>
+      <formula1>_validation_data!$D$1:$D$2</formula1>
     </dataValidation>
     <dataValidation sqref="C7 C14 C21 C28 C35 C42 C49 C56 C63 C70 C77 C84 C91 C98 C105" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$5</formula1>
+      <formula1>_validation_data!$F$1:$F$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
